--- a/ЦМ_GIT/laba_7.xlsx
+++ b/ЦМ_GIT/laba_7.xlsx
@@ -1,28 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Documents\ЦМ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\osnov\Desktop\GIT_UNIVERSITY\ЦМ_GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6FDE3BE-1916-41C9-97B7-B670BF98856C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB4B7A7E-4134-4987-A681-F13ED94A2280}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{47AB31DF-281F-480C-AB09-96423FD079FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Лист3" sheetId="3" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="solver_adj" localSheetId="0" hidden="1">Лист1!$B$12:$F$12</definedName>
-    <definedName name="solver_adj" localSheetId="1" hidden="1">Лист2!$B$12:$F$12</definedName>
+    <definedName name="solver_adj" localSheetId="1" hidden="1">Лист3!$B$12:$F$12</definedName>
     <definedName name="solver_cvg" localSheetId="0" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="1" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_drv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_drv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="0" hidden="1">1</definedName>
@@ -30,8 +30,8 @@
     <definedName name="solver_itr" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_lhs1" localSheetId="0" hidden="1">Лист1!$B$12:$F$12</definedName>
-    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Лист2!$B$12:$F$12</definedName>
-    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Лист2!$I$12</definedName>
+    <definedName name="solver_lhs1" localSheetId="1" hidden="1">Лист3!$B$12:$F$12</definedName>
+    <definedName name="solver_lhs2" localSheetId="1" hidden="1">Лист3!$H$12</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="1" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -49,23 +49,23 @@
     <definedName name="solver_nwt" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">Лист1!$B$15</definedName>
-    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист2!$B$15</definedName>
+    <definedName name="solver_opt" localSheetId="1" hidden="1">Лист3!$B$15</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="1" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rbv" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_rbv" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rel1" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rel1" localSheetId="1" hidden="1">3</definedName>
     <definedName name="solver_rel2" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rhs1" localSheetId="1" hidden="1">0</definedName>
-    <definedName name="solver_rhs2" localSheetId="1" hidden="1">8.8</definedName>
+    <definedName name="solver_rhs2" localSheetId="1" hidden="1">Лист3!$I$12</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="1" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_scl" localSheetId="1" hidden="1">2</definedName>
+    <definedName name="solver_scl" localSheetId="1" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="1" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="0" hidden="1">100</definedName>
@@ -533,7 +533,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -556,7 +556,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -589,23 +589,23 @@
       </c>
       <c r="B4" s="2">
         <f>10*(B1+B2+1+0.1*1)</f>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <f>5*(B1+B2+1+0.1*2)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <f>10*(B1+B2+1+0.1*3)</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <f>5*(B1+B2+1+0.1*4)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
         <f>10*(B1+B2+1+0.1*5)</f>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -615,23 +615,23 @@
       </c>
       <c r="B5" s="2">
         <f>0.5*(B1+B2+1+0.1*1)</f>
-        <v>1.05</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C5" s="2">
         <f>(B1+B2+1+0.1*2)</f>
-        <v>2.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="D5" s="2">
         <f>0.5*(B1+B2+1+0.1*3)</f>
-        <v>1.1499999999999999</v>
+        <v>2.65</v>
       </c>
       <c r="E5" s="2">
         <f>(B1+B2+1+0.1*4)</f>
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="F5" s="2">
         <f>0.5*(B1+B2+1+0.1*5)</f>
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -641,23 +641,23 @@
       </c>
       <c r="B6" s="2">
         <f>0.8*(B1+B2+1+0.1*1)</f>
-        <v>1.6800000000000002</v>
+        <v>4.08</v>
       </c>
       <c r="C6" s="2">
         <f>0.4*(B1+B2+1+0.1*2)</f>
-        <v>0.88000000000000012</v>
+        <v>2.08</v>
       </c>
       <c r="D6" s="2">
         <f>0.8*(B1+B2+1+0.1*3)</f>
-        <v>1.8399999999999999</v>
+        <v>4.24</v>
       </c>
       <c r="E6" s="2">
         <f>0.4*(B1+B2+1+0.1*4)</f>
-        <v>0.96</v>
+        <v>2.16</v>
       </c>
       <c r="F6" s="2">
         <f>0.8*(B1+B2+1+0.1*5)</f>
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -676,23 +676,23 @@
       </c>
       <c r="B8" s="1">
         <f>-1/B5</f>
-        <v>-0.95238095238095233</v>
+        <v>-0.39215686274509809</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:F8" si="0">-1/C5</f>
-        <v>-0.45454545454545453</v>
+        <v>-0.19230769230769229</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.86956521739130443</v>
+        <v>-0.37735849056603776</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.41666666666666669</v>
+        <v>-0.18518518518518517</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>-0.36363636363636365</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -702,23 +702,23 @@
       </c>
       <c r="B9" s="1">
         <f>B4/B5-B6</f>
-        <v>18.32</v>
+        <v>15.92</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ref="C9:F9" si="1">C4/C5-C6</f>
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>18.16</v>
+        <v>15.76</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>4.04</v>
+        <v>2.84</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15.6</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -755,19 +755,19 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>5.2580003485500928</v>
+        <v>20.297996809864021</v>
       </c>
       <c r="C12" s="3">
-        <v>2.711999420640399</v>
+        <v>7.5919971236120052</v>
       </c>
       <c r="D12" s="3">
-        <v>6.1619999425123702</v>
+        <v>20.882000073598281</v>
       </c>
       <c r="E12" s="3">
-        <v>3.1079982776403674</v>
+        <v>7.6679951456829212</v>
       </c>
       <c r="F12" s="3">
-        <v>7.0499994806641171</v>
+        <v>21.450002237071882</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
@@ -779,23 +779,23 @@
       </c>
       <c r="B13" s="3">
         <f>B12^2</f>
-        <v>27.646567665352897</v>
+        <v>412.00867449324994</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:F13" si="2">C12^2</f>
-        <v>7.35494085755386</v>
+        <v>57.638420324932959</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>37.970243291522451</v>
+        <v>436.05792707375861</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>9.6596532938154898</v>
+        <v>58.798149554216842</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>49.702492677364319</v>
+        <v>460.10259597038873</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -814,7 +814,7 @@
       </c>
       <c r="B15" s="3">
         <f>SUMPRODUCT(B8:F8,B13:F13)+SUMPRODUCT(B9:F9,B12:F12)</f>
-        <v>252.38055472650234</v>
+        <v>515.4051199999883</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -836,11 +836,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6B38CDF5-1670-4129-8507-91DCC3D15B3F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0320E2F-4220-4512-89D2-BCC16238E5FE}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -863,7 +863,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
@@ -896,23 +896,23 @@
       </c>
       <c r="B4" s="2">
         <f>10*(B1+B2+1+0.1*1)</f>
-        <v>21</v>
+        <v>51</v>
       </c>
       <c r="C4" s="2">
         <f>5*(B1+B2+1+0.1*2)</f>
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="D4" s="2">
         <f>10*(B1+B2+1+0.1*3)</f>
-        <v>23</v>
+        <v>53</v>
       </c>
       <c r="E4" s="2">
         <f>5*(B1+B2+1+0.1*4)</f>
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F4" s="2">
         <f>10*(B1+B2+1+0.1*5)</f>
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="G4" s="1"/>
     </row>
@@ -922,23 +922,23 @@
       </c>
       <c r="B5" s="2">
         <f>0.5*(B1+B2+1+0.1*1)</f>
-        <v>1.05</v>
+        <v>2.5499999999999998</v>
       </c>
       <c r="C5" s="2">
         <f>(B1+B2+1+0.1*2)</f>
-        <v>2.2000000000000002</v>
+        <v>5.2</v>
       </c>
       <c r="D5" s="2">
         <f>0.5*(B1+B2+1+0.1*3)</f>
-        <v>1.1499999999999999</v>
+        <v>2.65</v>
       </c>
       <c r="E5" s="2">
         <f>(B1+B2+1+0.1*4)</f>
-        <v>2.4</v>
+        <v>5.4</v>
       </c>
       <c r="F5" s="2">
         <f>0.5*(B1+B2+1+0.1*5)</f>
-        <v>1.25</v>
+        <v>2.75</v>
       </c>
       <c r="G5" s="1"/>
     </row>
@@ -948,23 +948,23 @@
       </c>
       <c r="B6" s="2">
         <f>0.8*(B1+B2+1+0.1*1)</f>
-        <v>1.6800000000000002</v>
+        <v>4.08</v>
       </c>
       <c r="C6" s="2">
         <f>0.4*(B1+B2+1+0.1*2)</f>
-        <v>0.88000000000000012</v>
+        <v>2.08</v>
       </c>
       <c r="D6" s="2">
         <f>0.8*(B1+B2+1+0.1*3)</f>
-        <v>1.8399999999999999</v>
+        <v>4.24</v>
       </c>
       <c r="E6" s="2">
         <f>0.4*(B1+B2+1+0.1*4)</f>
-        <v>0.96</v>
+        <v>2.16</v>
       </c>
       <c r="F6" s="2">
         <f>0.8*(B1+B2+1+0.1*5)</f>
-        <v>2</v>
+        <v>4.4000000000000004</v>
       </c>
       <c r="G6" s="1"/>
     </row>
@@ -983,23 +983,23 @@
       </c>
       <c r="B8" s="1">
         <f>-1/B5</f>
-        <v>-0.95238095238095233</v>
+        <v>-0.39215686274509809</v>
       </c>
       <c r="C8" s="1">
         <f t="shared" ref="C8:F8" si="0">-1/C5</f>
-        <v>-0.45454545454545453</v>
+        <v>-0.19230769230769229</v>
       </c>
       <c r="D8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.86956521739130443</v>
+        <v>-0.37735849056603776</v>
       </c>
       <c r="E8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.41666666666666669</v>
+        <v>-0.18518518518518517</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-0.8</v>
+        <v>-0.36363636363636365</v>
       </c>
       <c r="G8" s="1"/>
     </row>
@@ -1009,23 +1009,23 @@
       </c>
       <c r="B9" s="1">
         <f>B4/B5-B6</f>
-        <v>18.32</v>
+        <v>15.92</v>
       </c>
       <c r="C9" s="1">
         <f t="shared" ref="C9:F9" si="1">C4/C5-C6</f>
-        <v>4.12</v>
+        <v>2.92</v>
       </c>
       <c r="D9" s="1">
         <f t="shared" si="1"/>
-        <v>18.16</v>
+        <v>15.76</v>
       </c>
       <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>4.04</v>
+        <v>2.84</v>
       </c>
       <c r="F9" s="1">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>15.6</v>
       </c>
       <c r="G9" s="1"/>
     </row>
@@ -1062,30 +1062,30 @@
         <v>8</v>
       </c>
       <c r="B12" s="3">
-        <v>2.5305641102575795</v>
+        <v>20.297996809864021</v>
       </c>
       <c r="C12" s="3">
-        <v>0</v>
+        <v>7.5919971236120052</v>
       </c>
       <c r="D12" s="3">
-        <v>2.9386666638594838</v>
+        <v>20.882000073598281</v>
       </c>
       <c r="E12" s="3">
-        <v>0</v>
+        <v>7.6679951456829212</v>
       </c>
       <c r="F12" s="3">
-        <v>3.3307692258829373</v>
+        <v>21.450002237071882</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>15</v>
       </c>
       <c r="H12">
-        <f>0</f>
-        <v>0</v>
+        <f>14*B1+8*B2+8+0.8</f>
+        <v>40.799999999999997</v>
       </c>
       <c r="I12">
         <f>SUM(B12:F12)</f>
-        <v>8.8000000000000007</v>
+        <v>77.88999138982912</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.3">
@@ -1094,23 +1094,23 @@
       </c>
       <c r="B13" s="3">
         <f>B12^2</f>
-        <v>6.4037547161237356</v>
+        <v>412.00867449324994</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" ref="C13:F13" si="2">C12^2</f>
-        <v>0</v>
+        <v>57.638420324932959</v>
       </c>
       <c r="D13" s="3">
         <f t="shared" si="2"/>
-        <v>8.6357617612790278</v>
+        <v>436.05792707375861</v>
       </c>
       <c r="E13" s="3">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>58.798149554216842</v>
       </c>
       <c r="F13" s="3">
         <f t="shared" si="2"/>
-        <v>11.094023636088822</v>
+        <v>460.10259597038873</v>
       </c>
       <c r="G13" s="1"/>
     </row>
@@ -1129,7 +1129,7 @@
       </c>
       <c r="B15" s="3">
         <f>SUMPRODUCT(B8:F8,B13:F13)+SUMPRODUCT(B9:F9,B12:F12)</f>
-        <v>137.19657620398687</v>
+        <v>515.4051199999883</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
